--- a/Analysis/server0s5p/client0.1s/csr600d0.4.xlsx
+++ b/Analysis/server0s5p/client0.1s/csr600d0.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each device</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -6246,11 +6249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78237056"/>
-        <c:axId val="78247040"/>
+        <c:axId val="127433728"/>
+        <c:axId val="127791872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78237056"/>
+        <c:axId val="127433728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6260,7 +6263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78247040"/>
+        <c:crossAx val="127791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6268,7 +6271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78247040"/>
+        <c:axId val="127791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78237056"/>
+        <c:crossAx val="127433728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6627,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:SS104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="EJ105" sqref="EJ105"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30211,6 +30214,13 @@
       <c r="A82" t="s">
         <v>24</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1111.71484375</v>
+      </c>
     </row>
     <row r="83" spans="1:513" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -51259,7 +51269,7 @@
         <v>512</v>
       </c>
       <c r="EO97">
-        <f t="shared" ref="EO97:FF97" si="1698">FREQUENCY($B88:$SS88, EO$96)</f>
+        <f t="shared" ref="EO97:ET97" si="1698">FREQUENCY($B88:$SS88, EO$96)</f>
         <v>512</v>
       </c>
       <c r="EP97">
@@ -51808,7 +51818,7 @@
         <v>512</v>
       </c>
       <c r="EC98">
-        <f t="shared" ref="EC98:FF98" si="1702">FREQUENCY($B89:$SS89, EC$96)</f>
+        <f t="shared" ref="EC98:ET98" si="1702">FREQUENCY($B89:$SS89, EC$96)</f>
         <v>512</v>
       </c>
       <c r="ED98">
@@ -52405,7 +52415,7 @@
         <v>509</v>
       </c>
       <c r="EC99">
-        <f t="shared" ref="EC99:FF99" si="1705">FREQUENCY($B90:$SS90, EC$96)</f>
+        <f t="shared" ref="EC99:ET99" si="1705">FREQUENCY($B90:$SS90, EC$96)</f>
         <v>510</v>
       </c>
       <c r="ED99">
@@ -53002,7 +53012,7 @@
         <v>508</v>
       </c>
       <c r="EC100">
-        <f t="shared" ref="EC100:FF100" si="1708">FREQUENCY($B91:$SS91, EC$96)</f>
+        <f t="shared" ref="EC100:ET100" si="1708">FREQUENCY($B91:$SS91, EC$96)</f>
         <v>510</v>
       </c>
       <c r="ED100">
@@ -53599,7 +53609,7 @@
         <v>512</v>
       </c>
       <c r="EC101">
-        <f t="shared" ref="EC101:FF101" si="1711">FREQUENCY($B92:$SS92, EC$96)</f>
+        <f t="shared" ref="EC101:ET101" si="1711">FREQUENCY($B92:$SS92, EC$96)</f>
         <v>512</v>
       </c>
       <c r="ED101">
@@ -54196,7 +54206,7 @@
         <v>512</v>
       </c>
       <c r="EC102">
-        <f t="shared" ref="EC102:FF102" si="1714">FREQUENCY($B93:$SS93, EC$96)</f>
+        <f t="shared" ref="EC102:ET102" si="1714">FREQUENCY($B93:$SS93, EC$96)</f>
         <v>512</v>
       </c>
       <c r="ED102">
